--- a/medicine/Mort/Décès_en_1980/Décès_en_1980.xlsx
+++ b/medicine/Mort/Décès_en_1980/Décès_en_1980.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1980</t>
+          <t>Décès_en_1980</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1980</t>
+          <t>Décès_en_1980</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,14 +540,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Abdollah Davami, chanteur et pédagogue iranien (° 1899).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Abdollah Davami, chanteur et pédagogue iranien (° 1899).
 Édouard-Jules Eveno, peintre paysagiste, portraitiste et sculpteur animalier français (° 11 septembre 1884).
 Hourie Ipékian, poétesse arménienne (° 1919).
 Alfred Ernest Peter, peintre naïf suisse (° 22 février 1890).
-Willy-André Prestre, voyageur et écrivain suisse (° 1895).
-Janvier
-3 janvier :
+Willy-André Prestre, voyageur et écrivain suisse (° 1895).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1980</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1980</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3 janvier :
 Lucien Buysse, coureur cycliste belge (° 11 septembre 1892).
 Alexander Svechnikov, musicien et chef de chœur russe puis soviétique (° 11 septembre 1890).
 4 janvier : Joy Adamson, écrivain et naturaliste américain (° 20 janvier 1910).
@@ -546,7 +597,7 @@
 9 janvier : Gaetano Belloni, coureur cycliste italien (° 26 août 1892).
 10 janvier :
 Pierre Leemans, musicien et compositeur de musique classique belge (° 31 mai 1897).
-* César Pinteau, footballeur français (° 7 janvier 1910)[1].
+* César Pinteau, footballeur français (° 7 janvier 1910).
 18 janvier :
 Cecil Beaton, photographe et designer britannique (° 14 janvier 1904).
 David Seifert, peintre russe puis soviétique (° 31 décembre 1896).
@@ -556,14 +607,48 @@
 Georges Painvin, cryptographe et industriel français (° 28 janvier 1886).
 27 janvier : Hans Aeschbacher, sculpteur abstrait suisse (° 18 janvier 1906).
 28 janvier : Franco Evangelisti, compositeur italien (° 21 janvier 1926).
-30 janvier : William Peden, coureur cycliste canadien (° 16 avril 1906).
-Février
-1er février : Gastone Nencini, coureur cycliste italien (° 1er mars 1930).
+30 janvier : William Peden, coureur cycliste canadien (° 16 avril 1906).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1980</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1980</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février : Gastone Nencini, coureur cycliste italien (° 1er mars 1930).
 2 février : Joseph Fontanet, homme politique français (° 9 février 1921).
 3 février : Margit Sielska-Reich, peintre ukrainienne (° 26 mai 1900).
 4 février : Stojan Aralica, peintre serbe puis yougoslave (° 24 décembre 1883).
 8 février : Francesco Zucchetti, coureur cycliste italien (° 14 avril 1902).
-9 février : Ernest Bodini, Footballeur français (° 22 mai 1934)[2].
+9 février : Ernest Bodini, Footballeur français (° 22 mai 1934).
 13 février :
 Marian Rejewski, cryptologue polonais (° 16 août 1905).
 David Janssen, acteur et compositeur américain (° 27 mars 1931).
@@ -582,9 +667,43 @@
 André Fouda, homme politique camerounais (° 1906).
 George Tobias, acteur américain (° 14 juillet 1901).
 28 février : Jadwiga Jędrzejowska, joueuse de tennis polonaise (° 15 octobre 1912).
-29 février : Gil Elvgren, artiste américain (° 15 mars 1914).
-Mars
-1er mars : Dixie Dean, footballeur international anglais (° 22 janvier 1907).
+29 février : Gil Elvgren, artiste américain (° 15 mars 1914).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1980</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1980</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mars : Dixie Dean, footballeur international anglais (° 22 janvier 1907).
 2 mars : Jarosław Iwaszkiewicz, 86 ans, écrivain et dramaturge polonais (° 20 février 1894).
 5 mars :
 John Skeaping, peintre et sculpteur anglais (° 9 juin 1901).
@@ -600,9 +719,43 @@
 Serge Kislakoff, peintre français d'origine russe (° 14 décembre 1897).
 Vicente López Carril, coureur cycliste espagnol (° 2 décembre 1942).
 30 mars : Simone Breton, première épouse d’André Breton et personnalité du groupe surréaliste parisien de 1921 à 1929 (° 5 mai 1897).
-31 mars : Jesse Owens, sprinteur américain (° 12 septembre 1913).
-Avril
-2 avril : Edmund Burns, acteur américain (° 27 septembre 1892).
+31 mars : Jesse Owens, sprinteur américain (° 12 septembre 1913).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1980</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1980</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2 avril : Edmund Burns, acteur américain (° 27 septembre 1892).
 4 avril : Pedro Laza, compositeur et musicien colombien (° 2 décembre 1904).
 7 avril : Armando Miranda, footballeur brésilien (° 12 décembre 1939).
 11 avril : Maurice Blomme, coureur cycliste belge (° 29 octobre 1926).
@@ -613,9 +766,43 @@
 26 avril : Cicely Courtneidge, actrice, comédienne et chanteuse britannique (° 1er avril 1893).
 28 avril : Andrija Anković, joueur et entraîneur de football yougoslave (° 16 juillet 1937).
 29 avril : Alfred Hitchcock, cinéaste et réalisateur américain d'origine britannique (° 13 août 1899).
-30 avril : Léon-Éli Troclet, homme politique belge (° 14 juin 1902).
-Mai
-2 mai : André-Marie Mbida, homme d’État camerounais (° 1er janvier 1917).
+30 avril : Léon-Éli Troclet, homme politique belge (° 14 juin 1902).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1980</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1980</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2 mai : André-Marie Mbida, homme d’État camerounais (° 1er janvier 1917).
 4 mai : Josip Broz (Maréchal) président de la République fédérale socialiste de Yougoslavie (° 7 mai 1892).
 8 mai : Ricardo Rodríguez Álvarez, footballeur espagnol (° 12 octobre 1918).
 10 mai :
@@ -627,9 +814,43 @@
 Ian Curtis, chanteur du groupe anglais Joy Division (° 15 juillet 1956).
 Semyon Tchouikov, peintre russe puis soviétique (° 30 octobre 1902).
 24 mai : Kim Jae-gyu, homme politique sud-coréen (° 9 avril 1924).
-29 mai : Albert Beckaert, coureur cycliste belge (° 10 juin 1910).
-Juin
-4 juin : Robert Fontené, peintre, graveur et illustrateur français de l'École de Paris (° 6 janvier 1892).
+29 mai : Albert Beckaert, coureur cycliste belge (° 10 juin 1910).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1980</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1980</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>4 juin : Robert Fontené, peintre, graveur et illustrateur français de l'École de Paris (° 6 janvier 1892).
 5 juin :
 Antoine Delfosse, homme politique belge (° 25 juin 1895).
 Elias Melul, joueur et entraîneur de football français (° 31 mars 1916).
@@ -645,9 +866,43 @@
 20 juin : David Feuerwerker, rabbin et professeur d’histoire juive français  (° 2 octobre 1912).
 23 juin : Odile Versois, comédienne française (° 15 juin 1930).
 28 juin : Yoshirō Irino, compositeur japonais (° 13 novembre 1921).
-30 juin : Mizufune Rokushu, peintre japonais (° 26 mars 1912).
-Juillet
-1er juillet : Jacques Borel, footballeur français (° 21 novembre 1959)[3].
+30 juin : Mizufune Rokushu, peintre japonais (° 26 mars 1912).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1980</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1980</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er juillet : Jacques Borel, footballeur français (° 21 novembre 1959).
 3 juillet : Walter Ladengast, acteur autrichien (° 4 juillet 1899).
 4 juillet : Maurice Grevisse, grammairien belge (° 7 octobre 1895).
 7 juillet :
@@ -669,9 +924,43 @@
 25 juillet : Vladimir Vissotsky, chanteur russe (° 25 janvier 1938).
 27 juillet : Mohammad Reza Pahlavi, Chah d'Iran, d'un cancer au Caire (° 26 octobre 1919).
 28 juillet : Adolfo Grosso, coureur cycliste italien (° 17 décembre 1927).
-30 juillet : Pascal Jardin, écrivain et dialoguiste français (° 14 mai 1934).
-Août
-1er août : Patrick Depailler, coureur automobile F1 (° 9 août 1944).
+30 juillet : Pascal Jardin, écrivain et dialoguiste français (° 14 mai 1934).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1980</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1980</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1er août : Patrick Depailler, coureur automobile F1 (° 9 août 1944).
 6 août : Marino Marini, sculpteur et peintre italien (° 27 février 1901).
 7 août : Hilde Goldschmidt, peintre allemande (° 7 septembre 1897).
 10 août : Joško Vidošević, footballeur international yougoslave et croate (° 11 janvier 1935).
@@ -690,9 +979,43 @@
 Joseph Godber, homme politique britannique (° 17 mars 1914).
 Guy-David, peintre français (° 20 décembre 1911).
 Yvonne Maisonneuve, fondatrice canadienne de l'association La Chaînon (° 23 avril 1903).
-26 août : Tex Avery, réalisateur et créateur de dessins animés américain (° 26 février 1908).
-Septembre
-3 septembre : Duncan Renaldo, acteur roumaine naturalisé américain (° 23 avril 1904).
+26 août : Tex Avery, réalisateur et créateur de dessins animés américain (° 26 février 1908).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1980</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1980</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3 septembre : Duncan Renaldo, acteur roumaine naturalisé américain (° 23 avril 1904).
 4 septembre :
 Erast Garine, acteur et réalisateur russe puis soviétique (° 10 novembre 1902).
 Gaston Bonheur, écrivain et journaliste français (° 27 novembre 1913).
@@ -706,9 +1029,43 @@
 22 septembre : Margaret Cossaceanu, sculptrice française d'origine roumaine (° 4 janvier 1893).
 25 septembre : John Bonham, batteur du groupe Led Zeppelin (° 31 mai 1948).
 27 septembre : Jacques Favart, patineur artistique français et président de l'International Skating Union (° 30 juillet 1920).
-29 septembre : Hélène Dieudonné, comédienne (° 24 décembre 1884).
-Octobre
-? octobre : Dorothy Blum, informaticienne et crypto analyste américaine (° 21 février 1924).
+29 septembre : Hélène Dieudonné, comédienne (° 24 décembre 1884).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1980</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1980</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>? octobre : Dorothy Blum, informaticienne et crypto analyste américaine (° 21 février 1924).
 3 octobre : Georges Brisson, peintre, graveur et céramiste français (° 15 mars 1902).
 4 octobre : Piotr Macherov, homme politique soviétique (° 26 février 1918).
 6 octobre : Jean Robic, coureur cycliste français (° 10 juin 1921).
@@ -722,9 +1079,43 @@
 23 octobre : Auguste Trémont, peintre et sculpteur luxembourgeois (° 31 décembre 1892).
 26 octobre : Ludomir Sleńdziński,  peintre figuratif, sculpteur et pédagogue polonais (° 29 octobre 1889).
 27 octobre : Steve Peregrin Took, musicien britannique (° 28 juillet 1949).
-31 octobre : Joseph Pe, coureur cycliste belge (° 1er décembre 1891).
-Novembre
-1er novembre :
+31 octobre : Joseph Pe, coureur cycliste belge (° 1er décembre 1891).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1980</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1980</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre :
 Georges Capon, peintre, graveur, lithographe, aquafortiste et affichiste français (° 7 avril 1890).
 Victor Sen Yung, acteur américain (° 18 octobre 1915)
 6 novembre :  Ali Benouna, footballeur français d'origine algérienne (° 23 juillet 1907).
@@ -742,9 +1133,43 @@
 24 novembre : Jeanne Matthey, joueuse de tennis française (° 25 janvier 1886).
 26 novembre : Richard Oelze, peintre allemand (° 29 juin 1900).
 27 novembre : Vladimir Naïditch, peintre français de l'École de Paris (° 26 août 1903).
-28 novembre : Keith Caldwell, as et militaire néo-zélandais (° 16 octobre 1895).
-Décembre
-2 décembre : Romain Gary, écrivain français, Prix Goncourt (° 8 mai 1914).
+28 novembre : Keith Caldwell, as et militaire néo-zélandais (° 16 octobre 1895).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1980</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1980</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2 décembre : Romain Gary, écrivain français, Prix Goncourt (° 8 mai 1914).
 4 décembre : Edouard Ramonet, homme politique français (° 14 septembre 1909).
 5 décembre : Mary Lavater-Sloman, femme de lettres suisse d'expression allemande (° 14 décembre 1891).
 7 décembre : Thérèse Ott, peintre française (° 13 novembre 1896).
@@ -766,7 +1191,7 @@
 24 décembre : Karl Dönitz, Großadmiral et homme d'État allemand (° 16 septembre 1891).
 26 décembre :
 Giuseppe Balbo,  peintre italien (° 1er août 1902).
-Marcel Gébelin , footballeur puis entraîneur français (° 24 juin 1907)[4].
+Marcel Gébelin , footballeur puis entraîneur français (° 24 juin 1907).
 29 décembre : Luigi Lucotti, coureur cycliste italien (° 10 décembre 1893).
 31 décembre : Raoul Walsh, cinéaste américain (° 11 mars 1887).</t>
         </is>
